--- a/Neoplasm_v1.0.xlsx
+++ b/Neoplasm_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doieisuke/Desktop/BLAH8_HPO_まとめPhenoAb_hpo 2/Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E456300-810B-D74C-B286-450D7D241C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68105BA0-D526-6145-8ACD-2FE36C780014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36320" yWindow="1820" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="874">
   <si>
     <t>orig_entry</t>
   </si>
@@ -1331,6 +1331,1305 @@
   </si>
   <si>
     <t>Inclusion body fibromatosis</t>
+  </si>
+  <si>
+    <t>多発性膵β細胞腺腫</t>
+  </si>
+  <si>
+    <t>インスリノーマ</t>
+  </si>
+  <si>
+    <t>膵扁平上皮がん</t>
+  </si>
+  <si>
+    <t>膵芽腫</t>
+  </si>
+  <si>
+    <t>膵腺癌</t>
+  </si>
+  <si>
+    <t>泌尿生殖器悪性腫瘍</t>
+  </si>
+  <si>
+    <t>尿道の新生物</t>
+  </si>
+  <si>
+    <t>膀胱移行細胞がん</t>
+  </si>
+  <si>
+    <t>腎血管筋脂肪腫</t>
+  </si>
+  <si>
+    <t>腎皮質腺腫</t>
+  </si>
+  <si>
+    <t>腎肉腫</t>
+  </si>
+  <si>
+    <t>腎移行細胞がん</t>
+  </si>
+  <si>
+    <t>先天性中芽球性腎腫</t>
+  </si>
+  <si>
+    <t>腎芽細胞腫</t>
+  </si>
+  <si>
+    <t>葉周囲腎芽細胞腫症</t>
+  </si>
+  <si>
+    <t>壁内腎芽細胞腫症</t>
+  </si>
+  <si>
+    <t>2型乳頭状腎細胞がん</t>
+  </si>
+  <si>
+    <t>1型乳頭状腎細胞がん</t>
+  </si>
+  <si>
+    <t>明細胞腎細胞がん</t>
+  </si>
+  <si>
+    <t>腎腫瘍細胞腫</t>
+  </si>
+  <si>
+    <t>腎盂癌</t>
+  </si>
+  <si>
+    <t>尿管ポリープ</t>
+  </si>
+  <si>
+    <t>尿管移行細胞がん</t>
+  </si>
+  <si>
+    <t>子宮頸部扁平上皮乳頭腫</t>
+  </si>
+  <si>
+    <t>子宮頸がん</t>
+  </si>
+  <si>
+    <t>子宮頸部上皮内新生物</t>
+  </si>
+  <si>
+    <t>良性泌尿生殖器腫瘍</t>
+  </si>
+  <si>
+    <t>精巣副腎レスト腫瘍</t>
+  </si>
+  <si>
+    <t>精巣精巣腫瘍</t>
+  </si>
+  <si>
+    <t>セルトリ細胞腫を伴う思春期早発症</t>
+  </si>
+  <si>
+    <t>精巣性腺芽細胞腫</t>
+  </si>
+  <si>
+    <t>若年性精巣顆粒膜細胞腫</t>
+  </si>
+  <si>
+    <t>精巣奇形腫</t>
+  </si>
+  <si>
+    <t>ライディッヒ細胞新生物</t>
+  </si>
+  <si>
+    <t>精巣中皮腫</t>
+  </si>
+  <si>
+    <t>卵巣デルモイド嚢胞</t>
+  </si>
+  <si>
+    <t>類上皮腫</t>
+  </si>
+  <si>
+    <t>縦隔奇形腫</t>
+  </si>
+  <si>
+    <t>アルトマンIII型仙尾部奇形腫</t>
+  </si>
+  <si>
+    <t>AltmanII型仙尾部奇形腫</t>
+  </si>
+  <si>
+    <t>アルトマンI型仙尾部奇形腫</t>
+  </si>
+  <si>
+    <t>仙骨前方奇形腫</t>
+  </si>
+  <si>
+    <t>上咽頭奇形腫</t>
+  </si>
+  <si>
+    <t>心臓奇形腫</t>
+  </si>
+  <si>
+    <t>頭蓋顔面奇形腫</t>
+  </si>
+  <si>
+    <t>卵巣性腺芽細胞腫</t>
+  </si>
+  <si>
+    <t>絨毛がん</t>
+  </si>
+  <si>
+    <t>大脳胚芽腫</t>
+  </si>
+  <si>
+    <t>胚芽異常腫</t>
+  </si>
+  <si>
+    <t>悪性卵巣顆粒膜細胞腫</t>
+  </si>
+  <si>
+    <t>卵巣線維腫</t>
+  </si>
+  <si>
+    <t>卵巣肉腫</t>
+  </si>
+  <si>
+    <t>若年性卵巣顆粒膜細胞腫</t>
+  </si>
+  <si>
+    <t>卵巣がん</t>
+  </si>
+  <si>
+    <t>卵巣乳頭腺がん</t>
+  </si>
+  <si>
+    <t>精巣上体乳頭部膀胱腺腫</t>
+  </si>
+  <si>
+    <t>前立腺がん</t>
+  </si>
+  <si>
+    <t>陰茎の新生物</t>
+  </si>
+  <si>
+    <t>陰嚢の新生物</t>
+  </si>
+  <si>
+    <t>子宮平滑筋肉腫</t>
+  </si>
+  <si>
+    <t>子宮平滑筋腫</t>
+  </si>
+  <si>
+    <t>子宮内膜がん</t>
+  </si>
+  <si>
+    <t>外陰部扁平上皮がん</t>
+  </si>
+  <si>
+    <t>バルトリン腺がん</t>
+  </si>
+  <si>
+    <t>外陰上皮内新生物</t>
+  </si>
+  <si>
+    <t>外陰黒色腫</t>
+  </si>
+  <si>
+    <t>外陰部腺がん</t>
+  </si>
+  <si>
+    <t>卵管がん</t>
+  </si>
+  <si>
+    <t>子宮頸部明細胞腺がん</t>
+  </si>
+  <si>
+    <t>膣明細胞腺がん</t>
+  </si>
+  <si>
+    <t>胸膜中皮腫</t>
+  </si>
+  <si>
+    <t>腹膜中皮腫</t>
+  </si>
+  <si>
+    <t>心膜中皮腫</t>
+  </si>
+  <si>
+    <t>舌線維腫</t>
+  </si>
+  <si>
+    <t>眼窩神経鞘腫</t>
+  </si>
+  <si>
+    <t>網膜芽細胞腫</t>
+  </si>
+  <si>
+    <t>リッシュ結節</t>
+  </si>
+  <si>
+    <t>結膜過誤腫</t>
+  </si>
+  <si>
+    <t>網膜毛細血管腫</t>
+  </si>
+  <si>
+    <t>網膜海綿状血管腫</t>
+  </si>
+  <si>
+    <t>網膜色素上皮および網膜の複合過誤腫</t>
+  </si>
+  <si>
+    <t>網膜星細胞性過誤腫</t>
+  </si>
+  <si>
+    <t>網膜レースモース血管腫</t>
+  </si>
+  <si>
+    <t>強膜神経鞘腫</t>
+  </si>
+  <si>
+    <t>毛様体黒色腫</t>
+  </si>
+  <si>
+    <t>虹彩黒色腫</t>
+  </si>
+  <si>
+    <t>脈絡膜黒色腫</t>
+  </si>
+  <si>
+    <t>舌脂肪腫</t>
+  </si>
+  <si>
+    <t>前頭部皮膚脂肪腫</t>
+  </si>
+  <si>
+    <t>仙骨脂肪腫</t>
+  </si>
+  <si>
+    <t>眼瞼脂肪腫</t>
+  </si>
+  <si>
+    <t>粘液様脂肪肉腫</t>
+  </si>
+  <si>
+    <t>精巣脂肪腫症</t>
+  </si>
+  <si>
+    <t>湾曲性肩甲骨周囲脂肪腫</t>
+  </si>
+  <si>
+    <t>管状結節性肩甲骨周囲脂肪腫</t>
+  </si>
+  <si>
+    <t>骨盤脂肪腫症</t>
+  </si>
+  <si>
+    <t>有痛性皮下脂肪腫</t>
+  </si>
+  <si>
+    <t>皮膚血管脂肪腫</t>
+  </si>
+  <si>
+    <t>ヒュルトレ細胞甲状腺腺腫</t>
+  </si>
+  <si>
+    <t>甲状腺乳頭腺腫</t>
+  </si>
+  <si>
+    <t>甲状腺大濾胞腺腫</t>
+  </si>
+  <si>
+    <t>甲状腺小濾胞腺腫</t>
+  </si>
+  <si>
+    <t>甲状腺異型腺腫</t>
+  </si>
+  <si>
+    <t>甲状腺乳頭がん</t>
+  </si>
+  <si>
+    <t>非髄様甲状腺がん</t>
+  </si>
+  <si>
+    <t>甲状腺髄様がん</t>
+  </si>
+  <si>
+    <t>甲状腺濾胞がん</t>
+  </si>
+  <si>
+    <t>甲状腺未分化癌</t>
+  </si>
+  <si>
+    <t>肺傍神経節腫</t>
+  </si>
+  <si>
+    <t>ケモデクトーマ</t>
+  </si>
+  <si>
+    <t>鼓膜傍神経節腫</t>
+  </si>
+  <si>
+    <t>頸部グロムス腫瘍</t>
+  </si>
+  <si>
+    <t>頸動脈傍神経節腫</t>
+  </si>
+  <si>
+    <t>血管傍神経節腫</t>
+  </si>
+  <si>
+    <t>副腎外褐色細胞腫</t>
+  </si>
+  <si>
+    <t>副腎褐色細胞腫</t>
+  </si>
+  <si>
+    <t>非定型肺カルチノイド腫瘍</t>
+  </si>
+  <si>
+    <t>腸カルチノイド</t>
+  </si>
+  <si>
+    <t>小腸カルチノイド</t>
+  </si>
+  <si>
+    <t>グルカゴノーマ</t>
+  </si>
+  <si>
+    <t>副腎皮質がん</t>
+  </si>
+  <si>
+    <t>分泌性副腎皮質腺腫</t>
+  </si>
+  <si>
+    <t>非分泌性副腎皮質腺腫</t>
+  </si>
+  <si>
+    <t>メルケル細胞皮膚がん</t>
+  </si>
+  <si>
+    <t>副甲状腺がん</t>
+  </si>
+  <si>
+    <t>副甲状腺腺腫</t>
+  </si>
+  <si>
+    <t>下垂体がん</t>
+  </si>
+  <si>
+    <t>下垂体紡錘細胞腫瘍細胞腫</t>
+  </si>
+  <si>
+    <t>下垂体好酸球性幹細胞腺腫</t>
+  </si>
+  <si>
+    <t>下垂体性腺刺激細胞腺腫</t>
+  </si>
+  <si>
+    <t>下垂体性副腎皮質刺激細胞腺腫</t>
+  </si>
+  <si>
+    <t>マイクロプロラクチノーマ</t>
+  </si>
+  <si>
+    <t>マクロプロラクチノーマ</t>
+  </si>
+  <si>
+    <t>下垂体性甲状腺刺激細胞腺腫</t>
+  </si>
+  <si>
+    <t>下垂体成長ホルモン細胞腺腫</t>
+  </si>
+  <si>
+    <t>下垂体微小腺腫</t>
+  </si>
+  <si>
+    <t>下垂体ヌル細胞腺腫</t>
+  </si>
+  <si>
+    <t>下垂体巨大腺腫</t>
+  </si>
+  <si>
+    <t>プロラクチノーマ</t>
+  </si>
+  <si>
+    <t>軟骨肉腫</t>
+  </si>
+  <si>
+    <t>骨軟骨腫</t>
+  </si>
+  <si>
+    <t>骨巨細胞腫</t>
+  </si>
+  <si>
+    <t>骨様骨腫</t>
+  </si>
+  <si>
+    <t>多発性軟骨腫症</t>
+  </si>
+  <si>
+    <t>尺骨外骨腫</t>
+  </si>
+  <si>
+    <t>橈骨骨幹部外骨腫症</t>
+  </si>
+  <si>
+    <t>外耳道外骨腫症</t>
+  </si>
+  <si>
+    <t>多発性長骨外骨腫</t>
+  </si>
+  <si>
+    <t>上腕骨外骨腫症</t>
+  </si>
+  <si>
+    <t>多発性趾外骨腫</t>
+  </si>
+  <si>
+    <t>骨盤骨外骨腫</t>
+  </si>
+  <si>
+    <t>肩甲骨外骨腫症</t>
+  </si>
+  <si>
+    <t>手の骨の外骨腫</t>
+  </si>
+  <si>
+    <t>肋骨外骨腫</t>
+  </si>
+  <si>
+    <t>骨肉腫</t>
+  </si>
+  <si>
+    <t>脊索腫</t>
+  </si>
+  <si>
+    <t>軟骨芽細胞腫</t>
+  </si>
+  <si>
+    <t>骨芽細胞腫</t>
+  </si>
+  <si>
+    <t>形質細胞腫</t>
+  </si>
+  <si>
+    <t>悪性好酸球増殖症</t>
+  </si>
+  <si>
+    <t>皮膚T細胞リンパ腫</t>
+  </si>
+  <si>
+    <t>未分化大細胞リンパ腫</t>
+  </si>
+  <si>
+    <t>T細胞リンパ腫／白血病</t>
+  </si>
+  <si>
+    <t>皮下肉芽腫様T細胞リンパ腫</t>
+  </si>
+  <si>
+    <t>濾胞性リンパ腫</t>
+  </si>
+  <si>
+    <t>原発性中枢神経系リンパ腫</t>
+  </si>
+  <si>
+    <t>バーキットリンパ腫</t>
+  </si>
+  <si>
+    <t>胃リンパ腫</t>
+  </si>
+  <si>
+    <t>ホジキンリンパ腫</t>
+  </si>
+  <si>
+    <t>肺リンパ腫</t>
+  </si>
+  <si>
+    <t>慢性骨髄単球性白血病</t>
+  </si>
+  <si>
+    <t>急性骨髄単球性白血病</t>
+  </si>
+  <si>
+    <t>若年性骨髄単球性白血病</t>
+  </si>
+  <si>
+    <t>Ph陽性急性リンパ性白血病</t>
+  </si>
+  <si>
+    <t>T細胞性急性リンパ芽球性白血病</t>
+  </si>
+  <si>
+    <t>B型急性リンパ芽球性白血病</t>
+  </si>
+  <si>
+    <t>急性巨核球性白血病</t>
+  </si>
+  <si>
+    <t>二表現型急性白血病</t>
+  </si>
+  <si>
+    <t>急性前骨髄球性白血病</t>
+  </si>
+  <si>
+    <t>急性単球性白血病</t>
+  </si>
+  <si>
+    <t>急性骨髄性白血病</t>
+  </si>
+  <si>
+    <t>T細胞性慢性リンパ性リンパ腫／白血病</t>
+  </si>
+  <si>
+    <t>一過性骨髄増殖症候群</t>
+  </si>
+  <si>
+    <t>慢性骨髄性白血病</t>
+  </si>
+  <si>
+    <t>慢性リンパ性白血病</t>
+  </si>
+  <si>
+    <t>単クローン性免疫グロブリンM蛋白血症</t>
+  </si>
+  <si>
+    <t>多発性骨髄腫</t>
+  </si>
+  <si>
+    <t>環状鉄芽球を伴う難治性貧血</t>
+  </si>
+  <si>
+    <t>多系統骨髄異形成</t>
+  </si>
+  <si>
+    <t>両系統骨髄異形成症</t>
+  </si>
+  <si>
+    <t>口唇の新生物</t>
+  </si>
+  <si>
+    <t>眼窩横紋筋肉腫</t>
+  </si>
+  <si>
+    <t>肺胞横紋筋肉腫</t>
+  </si>
+  <si>
+    <t>胚性横紋筋肉腫</t>
+  </si>
+  <si>
+    <t>心臓横紋筋肉腫</t>
+  </si>
+  <si>
+    <t>後腹膜化学腫瘍</t>
+  </si>
+  <si>
+    <t>心臓肉腫</t>
+  </si>
+  <si>
+    <t>心臓粘液腫</t>
+  </si>
+  <si>
+    <t>心臓石灰化非晶質腫瘍</t>
+  </si>
+  <si>
+    <t>心臓線維腫</t>
+  </si>
+  <si>
+    <t>副鼻腔新生物</t>
+  </si>
+  <si>
+    <t>顎の新生物</t>
+  </si>
+  <si>
+    <t>若年性上咽頭血管線維腫</t>
+  </si>
+  <si>
+    <t>食道扁平上皮乳頭腫</t>
+  </si>
+  <si>
+    <t>食道がん</t>
+  </si>
+  <si>
+    <t>バレット食道</t>
+  </si>
+  <si>
+    <t>多巣性乳癌</t>
+  </si>
+  <si>
+    <t>非浸潤性乳管がん</t>
+  </si>
+  <si>
+    <t>非浸潤性小葉がん</t>
+  </si>
+  <si>
+    <t>乳房線維腺腫</t>
+  </si>
+  <si>
+    <t>筋層内粘液腫</t>
+  </si>
+  <si>
+    <t>びまん性平滑筋腫症</t>
+  </si>
+  <si>
+    <t>筋線維腫症</t>
+  </si>
+  <si>
+    <t>リン酸化性間葉系腫瘍</t>
+  </si>
+  <si>
+    <t>舌肉腫様がん</t>
+  </si>
+  <si>
+    <t>舌疣状細胞がん</t>
+  </si>
+  <si>
+    <t>舌過誤腫</t>
+  </si>
+  <si>
+    <t>オドントーマ</t>
+  </si>
+  <si>
+    <t>アメロブラストーマ</t>
+  </si>
+  <si>
+    <t>セメント腫</t>
+  </si>
+  <si>
+    <t>顎歯原性角化嚢腫</t>
+  </si>
+  <si>
+    <t>唾液腺腫瘍細胞腫</t>
+  </si>
+  <si>
+    <t>顎骨化性線維腫</t>
+  </si>
+  <si>
+    <t>口蓋新生物</t>
+  </si>
+  <si>
+    <t>胸腺腫</t>
+  </si>
+  <si>
+    <t>真珠腫</t>
+  </si>
+  <si>
+    <t>外耳基底腫</t>
+  </si>
+  <si>
+    <t>耳小骨腺新生物</t>
+  </si>
+  <si>
+    <t>両側前庭神経鞘腫</t>
+  </si>
+  <si>
+    <t>片側前庭神経鞘腫</t>
+  </si>
+  <si>
+    <t>内リンパ嚢腫瘍</t>
+  </si>
+  <si>
+    <t>肺リンパ管筋腫症</t>
+  </si>
+  <si>
+    <t>心臓血管腫</t>
+  </si>
+  <si>
+    <t>腸血管腫</t>
+  </si>
+  <si>
+    <t>肝血管腫</t>
+  </si>
+  <si>
+    <t>肺毛細血管腫症</t>
+  </si>
+  <si>
+    <t>内臓血管腫症</t>
+  </si>
+  <si>
+    <t>房状血管腫</t>
+  </si>
+  <si>
+    <t>後咽頭血管腫</t>
+  </si>
+  <si>
+    <t>声門上血管腫</t>
+  </si>
+  <si>
+    <t>腰仙部血管腫</t>
+  </si>
+  <si>
+    <t>会陰部血管腫</t>
+  </si>
+  <si>
+    <t>くも膜血管腫症</t>
+  </si>
+  <si>
+    <t>口唇血管腫</t>
+  </si>
+  <si>
+    <t>声門下血管腫</t>
+  </si>
+  <si>
+    <t>板状顔面血管腫</t>
+  </si>
+  <si>
+    <t>顔面正中線血管腫</t>
+  </si>
+  <si>
+    <t>中顔面毛細血管腫</t>
+  </si>
+  <si>
+    <t>顔面正中線毛細血管腫</t>
+  </si>
+  <si>
+    <t>正中前頭部毛細血管腫</t>
+  </si>
+  <si>
+    <t>外陰部血管腫</t>
+  </si>
+  <si>
+    <t>上皮様血管腫</t>
+  </si>
+  <si>
+    <t>傍脊椎血管腫</t>
+  </si>
+  <si>
+    <t>胸腔内血管腫</t>
+  </si>
+  <si>
+    <t>鞍部血管腫</t>
+  </si>
+  <si>
+    <t>眼周囲毛細血管腫</t>
+  </si>
+  <si>
+    <t>脾臓血管腫</t>
+  </si>
+  <si>
+    <t>食道血管腫</t>
+  </si>
+  <si>
+    <t>糸球体血管腫</t>
+  </si>
+  <si>
+    <t>脈絡膜血管腫</t>
+  </si>
+  <si>
+    <t>喉頭血管腫</t>
+  </si>
+  <si>
+    <t>顔面海綿状血管腫</t>
+  </si>
+  <si>
+    <t>脳海綿状奇形</t>
+  </si>
+  <si>
+    <t>松果体細胞腫</t>
+  </si>
+  <si>
+    <t>松果体芽細胞腫</t>
+  </si>
+  <si>
+    <t>小脳血管芽腫</t>
+  </si>
+  <si>
+    <t>脊髄血管芽腫</t>
+  </si>
+  <si>
+    <t>脈絡叢乳頭腫</t>
+  </si>
+  <si>
+    <t>脳下垂体結節</t>
+  </si>
+  <si>
+    <t>皮質結節</t>
+  </si>
+  <si>
+    <t>視床下部過誤腫</t>
+  </si>
+  <si>
+    <t>神経上皮嚢腫</t>
+  </si>
+  <si>
+    <t>多発性髄膜腫</t>
+  </si>
+  <si>
+    <t>脊髄髄膜腫</t>
+  </si>
+  <si>
+    <t>視神経鞘髄膜腫</t>
+  </si>
+  <si>
+    <t>頭蓋内髄膜腫</t>
+  </si>
+  <si>
+    <t>多形膠芽腫</t>
+  </si>
+  <si>
+    <t>小脳グリオーマ</t>
+  </si>
+  <si>
+    <t>視神経グリオーマ</t>
+  </si>
+  <si>
+    <t>上衣腫</t>
+  </si>
+  <si>
+    <t>脳幹神経膠腫</t>
+  </si>
+  <si>
+    <t>乏突起膠腫</t>
+  </si>
+  <si>
+    <t>巨大細胞下星細胞腫</t>
+  </si>
+  <si>
+    <t>多形性黄色星細胞腫</t>
+  </si>
+  <si>
+    <t>毛様細胞性星細胞腫</t>
+  </si>
+  <si>
+    <t>脈絡叢がん</t>
+  </si>
+  <si>
+    <t>先天性神経芽細胞腫</t>
+  </si>
+  <si>
+    <t>嗅覚性伸展性神経芽細胞腫</t>
+  </si>
+  <si>
+    <t>神経節神経芽細胞腫</t>
+  </si>
+  <si>
+    <t>限局性神経芽細胞腫</t>
+  </si>
+  <si>
+    <t>小脳髄芽腫</t>
+  </si>
+  <si>
+    <t>神経膠腫</t>
+  </si>
+  <si>
+    <t>ロゼット形成グリオニューロン腫瘍</t>
+  </si>
+  <si>
+    <t>異形成性神経上皮腫瘍</t>
+  </si>
+  <si>
+    <t>末梢神経鞘腫</t>
+  </si>
+  <si>
+    <t>対称性脊髄神経根神経線維腫</t>
+  </si>
+  <si>
+    <t>傍脊椎神経線維腫</t>
+  </si>
+  <si>
+    <t>非定型神経線維腫症</t>
+  </si>
+  <si>
+    <t>皮下神経線維腫</t>
+  </si>
+  <si>
+    <t>偶発性神経線維腫</t>
+  </si>
+  <si>
+    <t>叢状神経線維腫</t>
+  </si>
+  <si>
+    <t>多発性腸神経線維腫症</t>
+  </si>
+  <si>
+    <t>手掌神経線維腫</t>
+  </si>
+  <si>
+    <t>多発性粘膜神経腫</t>
+  </si>
+  <si>
+    <t>末梢神経上皮腫</t>
+  </si>
+  <si>
+    <t>仙骨前神経節腫</t>
+  </si>
+  <si>
+    <t>肛門上皮内新生物</t>
+  </si>
+  <si>
+    <t>良性消化管腫瘍</t>
+  </si>
+  <si>
+    <t>ゾリンジャー・エリソン症候群</t>
+  </si>
+  <si>
+    <t>肛門縁扁平上皮がん</t>
+  </si>
+  <si>
+    <t>肛門縁パジェット病</t>
+  </si>
+  <si>
+    <t>肛門縁基底細胞腫</t>
+  </si>
+  <si>
+    <t>肛門縁黒色腫</t>
+  </si>
+  <si>
+    <t>消化管間質腫瘍</t>
+  </si>
+  <si>
+    <t>炎症性被膜ポリープ</t>
+  </si>
+  <si>
+    <t>鋸歯状腸ポリープ</t>
+  </si>
+  <si>
+    <t>不連続性腸ポリープ</t>
+  </si>
+  <si>
+    <t>十二指腸ポリープ症</t>
+  </si>
+  <si>
+    <t>直腸ポリープ症</t>
+  </si>
+  <si>
+    <t>腺腫性大腸ポリポーシス</t>
+  </si>
+  <si>
+    <t>大腸ポリポーシス</t>
+  </si>
+  <si>
+    <t>若年性大腸ポリポーシス</t>
+  </si>
+  <si>
+    <t>過形成性大腸ポリポーシス</t>
+  </si>
+  <si>
+    <t>小腸ポリープ</t>
+  </si>
+  <si>
+    <t>過誤腫性胃ポリープ</t>
+  </si>
+  <si>
+    <t>若年性消化管ポリポーシス</t>
+  </si>
+  <si>
+    <t>大腸がん</t>
+  </si>
+  <si>
+    <t>結腸腺癌</t>
+  </si>
+  <si>
+    <t>肛門管扁平上皮がん</t>
+  </si>
+  <si>
+    <t>肛門管腺がん</t>
+  </si>
+  <si>
+    <t>遺伝性非ポリポーシス大腸がん</t>
+  </si>
+  <si>
+    <t>肝芽腫</t>
+  </si>
+  <si>
+    <t>肝細胞がん</t>
+  </si>
+  <si>
+    <t>肝病巣性結節性過形成</t>
+  </si>
+  <si>
+    <t>肝ハマルトーマ</t>
+  </si>
+  <si>
+    <t>肝平滑筋腫</t>
+  </si>
+  <si>
+    <t>肝細胞腺腫</t>
+  </si>
+  <si>
+    <t>原発性腹膜がん</t>
+  </si>
+  <si>
+    <t>Vater膨大部がん</t>
+  </si>
+  <si>
+    <t>空腸腺がん</t>
+  </si>
+  <si>
+    <t>十二指腸腺がん</t>
+  </si>
+  <si>
+    <t>回腸腺がん</t>
+  </si>
+  <si>
+    <t>多発性胆道過誤腫</t>
+  </si>
+  <si>
+    <t>胆嚢の新生物</t>
+  </si>
+  <si>
+    <t>胆管がん</t>
+  </si>
+  <si>
+    <t>胃平滑筋肉腫</t>
+  </si>
+  <si>
+    <t>胃底腺ポリープ症</t>
+  </si>
+  <si>
+    <t>多発性胃ポリープ</t>
+  </si>
+  <si>
+    <t>胃腺癌</t>
+  </si>
+  <si>
+    <t>胃がん</t>
+  </si>
+  <si>
+    <t>デスモイド腫瘍</t>
+  </si>
+  <si>
+    <t>ケラトアカントーマ</t>
+  </si>
+  <si>
+    <t>口腔咽頭扁平上皮がん</t>
+  </si>
+  <si>
+    <t>皮膚扁平上皮がん</t>
+  </si>
+  <si>
+    <t>結節性黒色腫</t>
+  </si>
+  <si>
+    <t>悪性黒子型黒色腫</t>
+  </si>
+  <si>
+    <t>表在拡大型黒色腫</t>
+  </si>
+  <si>
+    <t>先端黒子型黒色腫</t>
+  </si>
+  <si>
+    <t>カポジ肉腫</t>
+  </si>
+  <si>
+    <t>線維毛包腫</t>
+  </si>
+  <si>
+    <t>播種性皮膚疣贅</t>
+  </si>
+  <si>
+    <t>扁平ゆうぜい</t>
+  </si>
+  <si>
+    <t>性器疣贅</t>
+  </si>
+  <si>
+    <t>口腔咽頭扁平上皮乳頭腫</t>
+  </si>
+  <si>
+    <t>顔面乳頭腫</t>
+  </si>
+  <si>
+    <t>光線性角化症</t>
+  </si>
+  <si>
+    <t>皮脂腺腫</t>
+  </si>
+  <si>
+    <t>皮膚平滑筋腫</t>
+  </si>
+  <si>
+    <t>皮膚平滑筋肉腫</t>
+  </si>
+  <si>
+    <t>毛母腫</t>
+  </si>
+  <si>
+    <t>アポクリン汗腺腫</t>
+  </si>
+  <si>
+    <t>毛包円板腫</t>
+  </si>
+  <si>
+    <t>円柱腫</t>
+  </si>
+  <si>
+    <t>皮脂腺がん</t>
+  </si>
+  <si>
+    <t>毛包上皮腫</t>
+  </si>
+  <si>
+    <t>単発性毛包上皮腫</t>
+  </si>
+  <si>
+    <t>多発性毛包上皮腫</t>
+  </si>
+  <si>
+    <t>多孔腫</t>
+  </si>
+  <si>
+    <t>毛包内皮腫</t>
+  </si>
+  <si>
+    <t>皮膚粘液腫</t>
+  </si>
+  <si>
+    <t>粘液様皮下腫瘍</t>
+  </si>
+  <si>
+    <t>脂漏性角化症</t>
+  </si>
+  <si>
+    <t>毛包周囲線維腫</t>
+  </si>
+  <si>
+    <t>エクリン汗管線維腺腫</t>
+  </si>
+  <si>
+    <t>アカントーマ</t>
+  </si>
+  <si>
+    <t>皮膚肥満細胞症</t>
+  </si>
+  <si>
+    <t>多発性皮膚悪性腫瘍</t>
+  </si>
+  <si>
+    <t>多発性皮膚平滑筋腫</t>
+  </si>
+  <si>
+    <t>多発性脂肪細胞腫</t>
+  </si>
+  <si>
+    <t>皮膚リンパ球腫</t>
+  </si>
+  <si>
+    <t>胸膜肺芽腫</t>
+  </si>
+  <si>
+    <t>咽頭新生物</t>
+  </si>
+  <si>
+    <t>喉頭がん</t>
+  </si>
+  <si>
+    <t>喉頭乳頭腫</t>
+  </si>
+  <si>
+    <t>肺軟骨腫</t>
+  </si>
+  <si>
+    <t>気管乳頭腫</t>
+  </si>
+  <si>
+    <t>気管気管支平滑筋腫症</t>
+  </si>
+  <si>
+    <t>気管支乳頭腫</t>
+  </si>
+  <si>
+    <t>肺胞細胞腫</t>
+  </si>
+  <si>
+    <t>肺線維腫</t>
+  </si>
+  <si>
+    <t>肺腺がん</t>
+  </si>
+  <si>
+    <t>肺扁平上皮がん</t>
+  </si>
+  <si>
+    <t>大細胞肺がん</t>
+  </si>
+  <si>
+    <t>小細胞肺がん</t>
+  </si>
+  <si>
+    <t>膵粘液嚢胞性新生物</t>
+  </si>
+  <si>
+    <t>虫垂粘液性新生物</t>
+  </si>
+  <si>
+    <t>胃粘液癌</t>
+  </si>
+  <si>
+    <t>粘液性大腸がん</t>
+  </si>
+  <si>
+    <t>卵巣粘液性腫瘍</t>
+  </si>
+  <si>
+    <t>癌腫</t>
+  </si>
+  <si>
+    <t>非定型奇形腫/ラブドイド腫瘍</t>
+  </si>
+  <si>
+    <t>腎臓のラブドイド腫瘍</t>
+  </si>
+  <si>
+    <t>ユーイング肉腫</t>
+  </si>
+  <si>
+    <t>神経線維肉腫</t>
+  </si>
+  <si>
+    <t>肺胞性軟部肉腫</t>
+  </si>
+  <si>
+    <t>転移性血管肉腫</t>
+  </si>
+  <si>
+    <t>滑膜肉腫</t>
+  </si>
+  <si>
+    <t>歯肉線維腫症</t>
+  </si>
+  <si>
+    <t>爪下線維腫</t>
+  </si>
+  <si>
+    <t>頭蓋咽頭腫</t>
+  </si>
+  <si>
+    <t>神経細胞腫</t>
+  </si>
+  <si>
+    <t>上衣芽細胞腫</t>
+  </si>
+  <si>
+    <t>髄上皮腫</t>
+  </si>
+  <si>
+    <t>線維性過誤腫</t>
+  </si>
+  <si>
+    <t>血管性過誤腫</t>
+  </si>
+  <si>
+    <t>多数の母斑</t>
+  </si>
+  <si>
+    <t>脾臓過誤腫</t>
+  </si>
+  <si>
+    <t>縦隔嚢胞性リンパ管腫</t>
+  </si>
+  <si>
+    <t>眼窩リンパ管腫</t>
+  </si>
+  <si>
+    <t>皮膚過誤腫</t>
+  </si>
+  <si>
+    <t>胆管腫</t>
+  </si>
+  <si>
+    <t>組織球腫</t>
+  </si>
+  <si>
+    <t>封入体線維腫症</t>
   </si>
   <si>
     <t>Disease name</t>
@@ -2301,11 +3600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F436"/>
+  <dimension ref="A1:G436"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2315,7 +3614,7 @@
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2323,19 +3622,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>437</v>
+        <v>870</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>438</v>
+        <v>871</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>439</v>
+        <v>872</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>8194</v>
       </c>
@@ -2345,8 +3644,11 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>12197</v>
       </c>
@@ -2356,8 +3658,11 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>12142</v>
       </c>
@@ -2367,8 +3672,11 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>100757</v>
       </c>
@@ -2378,8 +3686,11 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>6725</v>
       </c>
@@ -2389,8 +3700,11 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6758</v>
       </c>
@@ -2400,8 +3714,11 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>100517</v>
       </c>
@@ -2411,8 +3728,11 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>6740</v>
       </c>
@@ -2422,8 +3742,11 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6772</v>
       </c>
@@ -2433,8 +3756,11 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>6735</v>
       </c>
@@ -2444,8 +3770,11 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>8663</v>
       </c>
@@ -2455,8 +3784,11 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>30409</v>
       </c>
@@ -2466,8 +3798,11 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>100881</v>
       </c>
@@ -2477,8 +3812,11 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>2667</v>
       </c>
@@ -2488,8 +3826,11 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>11796</v>
       </c>
@@ -2499,8 +3840,11 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="G16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>11795</v>
       </c>
@@ -2510,8 +3854,11 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="G17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>6732</v>
       </c>
@@ -2521,8 +3868,11 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="G18" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>11797</v>
       </c>
@@ -2532,8 +3882,11 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="G19" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>6770</v>
       </c>
@@ -2543,8 +3896,11 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="G20" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>11798</v>
       </c>
@@ -2554,8 +3910,11 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="G21" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>6762</v>
       </c>
@@ -2565,8 +3924,11 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="G22" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>25635</v>
       </c>
@@ -2576,8 +3938,11 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="G23" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>34512</v>
       </c>
@@ -2587,8 +3952,11 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="G24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>4000153</v>
       </c>
@@ -2598,8 +3966,11 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="G25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>30079</v>
       </c>
@@ -2609,8 +3980,11 @@
       <c r="C26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="G26" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>32242</v>
       </c>
@@ -2620,8 +3994,11 @@
       <c r="C27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="G27" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>6778</v>
       </c>
@@ -2631,8 +4008,11 @@
       <c r="C28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="G28" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>25451</v>
       </c>
@@ -2642,8 +4022,11 @@
       <c r="C29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="G29" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>100617</v>
       </c>
@@ -2653,8 +4036,11 @@
       <c r="C30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="G30" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>8204</v>
       </c>
@@ -2664,8 +4050,11 @@
       <c r="C31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="G31" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2675,8 +4064,11 @@
       <c r="C32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="G32" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>34380</v>
       </c>
@@ -2686,8 +4078,11 @@
       <c r="C33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="G33" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>100616</v>
       </c>
@@ -2697,8 +4092,11 @@
       <c r="C34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="G34" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>100618</v>
       </c>
@@ -2708,8 +4106,11 @@
       <c r="C35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="G35" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>100005</v>
       </c>
@@ -2719,8 +4120,11 @@
       <c r="C36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="G36" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>25274</v>
       </c>
@@ -2730,8 +4134,11 @@
       <c r="C37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="G37" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>30767</v>
       </c>
@@ -2741,8 +4148,11 @@
       <c r="C38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="G38" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>30741</v>
       </c>
@@ -2752,8 +4162,11 @@
       <c r="C39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="G39" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>30739</v>
       </c>
@@ -2763,8 +4176,11 @@
       <c r="C40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="G40" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>30738</v>
       </c>
@@ -2774,8 +4190,11 @@
       <c r="C41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="G41" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>30737</v>
       </c>
@@ -2785,8 +4204,11 @@
       <c r="C42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="G42" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>9793</v>
       </c>
@@ -2796,8 +4218,11 @@
       <c r="C43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="G43" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>31227</v>
       </c>
@@ -2807,8 +4232,11 @@
       <c r="C44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="G44" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>11674</v>
       </c>
@@ -2818,8 +4246,11 @@
       <c r="C45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="G45" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>30755</v>
       </c>
@@ -2829,8 +4260,11 @@
       <c r="C46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="G46" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>149</v>
       </c>
@@ -2840,8 +4274,11 @@
       <c r="C47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="G47" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>100768</v>
       </c>
@@ -2851,8 +4288,11 @@
       <c r="C48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="G48" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>100312</v>
       </c>
@@ -2862,8 +4302,11 @@
       <c r="C49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="G49" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>100621</v>
       </c>
@@ -2873,8 +4316,11 @@
       <c r="C50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="G50" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>31920</v>
       </c>
@@ -2884,8 +4330,11 @@
       <c r="C51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="G51" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>10618</v>
       </c>
@@ -2895,8 +4344,11 @@
       <c r="C52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="G52" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>30983</v>
       </c>
@@ -2906,8 +4358,11 @@
       <c r="C53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="G53" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>31919</v>
       </c>
@@ -2917,8 +4372,11 @@
       <c r="C54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="G54" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>25318</v>
       </c>
@@ -2928,8 +4386,11 @@
       <c r="C55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="G55" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>6774</v>
       </c>
@@ -2939,8 +4400,11 @@
       <c r="C56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="G56" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>9715</v>
       </c>
@@ -2950,8 +4414,11 @@
       <c r="C57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="G57" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>12125</v>
       </c>
@@ -2961,8 +4428,11 @@
       <c r="C58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="G58" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>100850</v>
       </c>
@@ -2972,8 +4442,11 @@
       <c r="C59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="G59" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>100849</v>
       </c>
@@ -2983,8 +4456,11 @@
       <c r="C60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="G60" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>2891</v>
       </c>
@@ -2994,8 +4470,11 @@
       <c r="C61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="G61" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>131</v>
       </c>
@@ -3005,8 +4484,11 @@
       <c r="C62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="G62" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>12114</v>
       </c>
@@ -3016,8 +4498,11 @@
       <c r="C63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="G63" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>30417</v>
       </c>
@@ -3027,8 +4512,11 @@
       <c r="C64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="G64" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>30419</v>
       </c>
@@ -3038,8 +4526,11 @@
       <c r="C65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="G65" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>32202</v>
       </c>
@@ -3049,8 +4540,11 @@
       <c r="C66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="G66" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>30418</v>
       </c>
@@ -3060,8 +4554,11 @@
       <c r="C67" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="G67" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>30420</v>
       </c>
@@ -3071,8 +4568,11 @@
       <c r="C68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="G68" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>30394</v>
       </c>
@@ -3082,8 +4582,11 @@
       <c r="C69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="G69" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>31522</v>
       </c>
@@ -3093,8 +4596,11 @@
       <c r="C70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="G70" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>31521</v>
       </c>
@@ -3104,8 +4610,11 @@
       <c r="C71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="G71" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>100002</v>
       </c>
@@ -3115,8 +4624,11 @@
       <c r="C72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="G72" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>100003</v>
       </c>
@@ -3126,8 +4638,11 @@
       <c r="C73" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="G73" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>100004</v>
       </c>
@@ -3137,8 +4652,11 @@
       <c r="C74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="G74" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>100804</v>
       </c>
@@ -3148,8 +4666,11 @@
       <c r="C75" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="G75" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>25604</v>
       </c>
@@ -3159,8 +4680,11 @@
       <c r="C76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="G76" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>9919</v>
       </c>
@@ -3170,8 +4694,11 @@
       <c r="C77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="G77" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>9737</v>
       </c>
@@ -3181,8 +4708,11 @@
       <c r="C78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="G78" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>100780</v>
       </c>
@@ -3192,8 +4722,11 @@
       <c r="C79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="G79" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>9711</v>
       </c>
@@ -3203,8 +4736,11 @@
       <c r="C80" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="G80" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>30508</v>
       </c>
@@ -3214,8 +4750,11 @@
       <c r="C81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="G81" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>30510</v>
       </c>
@@ -3225,8 +4764,11 @@
       <c r="C82" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="G82" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>12778</v>
       </c>
@@ -3236,8 +4778,11 @@
       <c r="C83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="G83" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>30509</v>
       </c>
@@ -3247,8 +4792,11 @@
       <c r="C84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="G84" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>100011</v>
       </c>
@@ -3258,8 +4806,11 @@
       <c r="C85" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="G85" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>12055</v>
       </c>
@@ -3269,8 +4820,11 @@
       <c r="C86" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="G86" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>11524</v>
       </c>
@@ -3280,8 +4834,11 @@
       <c r="C87" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="G87" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>12054</v>
       </c>
@@ -3291,8 +4848,11 @@
       <c r="C88" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="G88" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>30815</v>
       </c>
@@ -3302,8 +4862,11 @@
       <c r="C89" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="G89" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>7541</v>
       </c>
@@ -3313,8 +4876,11 @@
       <c r="C90" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="G90" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>12033</v>
       </c>
@@ -3324,8 +4890,11 @@
       <c r="C91" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="G91" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>40164</v>
       </c>
@@ -3335,8 +4904,11 @@
       <c r="C92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="G92" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>12268</v>
       </c>
@@ -3346,8 +4918,11 @@
       <c r="C93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="G93" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>25476</v>
       </c>
@@ -3357,8 +4932,11 @@
       <c r="C94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="G94" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>34013</v>
       </c>
@@ -3368,8 +4946,11 @@
       <c r="C95" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="G95" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>34014</v>
       </c>
@@ -3379,8 +4960,11 @@
       <c r="C96" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="G96" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>34009</v>
       </c>
@@ -3390,8 +4974,11 @@
       <c r="C97" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="G97" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>7596</v>
       </c>
@@ -3401,8 +4988,11 @@
       <c r="C98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="G98" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>6773</v>
       </c>
@@ -3412,8 +5002,11 @@
       <c r="C99" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="G99" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>6781</v>
       </c>
@@ -3423,8 +5016,11 @@
       <c r="C100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="G100" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>11777</v>
       </c>
@@ -3434,8 +5030,11 @@
       <c r="C101" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="G101" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>11775</v>
       </c>
@@ -3445,8 +5044,11 @@
       <c r="C102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="G102" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>11776</v>
       </c>
@@ -3456,8 +5058,11 @@
       <c r="C103" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="G103" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>11778</v>
       </c>
@@ -3467,8 +5072,11 @@
       <c r="C104" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="G104" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>2895</v>
       </c>
@@ -3478,8 +5086,11 @@
       <c r="C105" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="G105" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>40198</v>
       </c>
@@ -3489,8 +5100,11 @@
       <c r="C106" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="G106" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>2865</v>
       </c>
@@ -3500,8 +5114,11 @@
       <c r="C107" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="G107" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>6731</v>
       </c>
@@ -3511,8 +5128,11 @@
       <c r="C108" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="G108" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>11779</v>
       </c>
@@ -3522,8 +5142,11 @@
       <c r="C109" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="G109" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>100636</v>
       </c>
@@ -3533,8 +5156,11 @@
       <c r="C110" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="G110" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>30074</v>
       </c>
@@ -3544,8 +5170,11 @@
       <c r="C111" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="G111" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>6715</v>
       </c>
@@ -3555,8 +5184,11 @@
       <c r="C112" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="G112" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>3001</v>
       </c>
@@ -3566,8 +5198,11 @@
       <c r="C113" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="G113" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>100635</v>
       </c>
@@ -3577,8 +5212,11 @@
       <c r="C114" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="G114" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>2886</v>
       </c>
@@ -3588,8 +5226,11 @@
       <c r="C115" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="G115" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>6737</v>
       </c>
@@ -3599,8 +5240,11 @@
       <c r="C116" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="G116" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>6748</v>
       </c>
@@ -3610,8 +5254,11 @@
       <c r="C117" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="G117" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>30446</v>
       </c>
@@ -3621,8 +5268,11 @@
       <c r="C118" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="G118" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>6723</v>
       </c>
@@ -3632,8 +5282,11 @@
       <c r="C119" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="G119" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>6722</v>
       </c>
@@ -3643,8 +5296,11 @@
       <c r="C120" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="G120" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>30404</v>
       </c>
@@ -3654,8 +5310,11 @@
       <c r="C121" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="G121" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>6744</v>
       </c>
@@ -3665,8 +5324,11 @@
       <c r="C122" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="G122" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>11746</v>
       </c>
@@ -3676,8 +5338,11 @@
       <c r="C123" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="G123" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>11745</v>
       </c>
@@ -3687,8 +5352,11 @@
       <c r="C124" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="G124" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>30447</v>
       </c>
@@ -3698,8 +5366,11 @@
       <c r="C125" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="G125" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>6780</v>
       </c>
@@ -3709,8 +5380,11 @@
       <c r="C126" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="G126" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>2897</v>
       </c>
@@ -3720,8 +5394,11 @@
       <c r="C127" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="G127" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>11763</v>
       </c>
@@ -3731,8 +5408,11 @@
       <c r="C128" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="G128" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>11764</v>
       </c>
@@ -3742,8 +5422,11 @@
       <c r="C129" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="G129" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>11758</v>
       </c>
@@ -3753,8 +5436,11 @@
       <c r="C130" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="G130" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>11759</v>
       </c>
@@ -3764,8 +5450,11 @@
       <c r="C131" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="G131" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>8291</v>
       </c>
@@ -3775,8 +5464,11 @@
       <c r="C132" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="G132" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>12341</v>
       </c>
@@ -3786,8 +5478,11 @@
       <c r="C133" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="G133" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>12342</v>
       </c>
@@ -3797,8 +5492,11 @@
       <c r="C134" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="G134" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>11762</v>
       </c>
@@ -3808,8 +5506,11 @@
       <c r="C135" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="G135" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>11760</v>
       </c>
@@ -3819,8 +5520,11 @@
       <c r="C136" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="G136" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>25694</v>
       </c>
@@ -3830,8 +5534,11 @@
       <c r="C137" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="G137" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>11761</v>
       </c>
@@ -3841,8 +5548,11 @@
       <c r="C138" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="G138" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>25693</v>
       </c>
@@ -3852,8 +5562,11 @@
       <c r="C139" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="G139" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>40278</v>
       </c>
@@ -3863,8 +5576,11 @@
       <c r="C140" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="G140" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>6765</v>
       </c>
@@ -3874,8 +5590,11 @@
       <c r="C141" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="G141" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>30431</v>
       </c>
@@ -3885,8 +5604,11 @@
       <c r="C142" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="G142" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>11847</v>
       </c>
@@ -3896,8 +5618,11 @@
       <c r="C143" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="G143" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>30433</v>
       </c>
@@ -3907,8 +5632,11 @@
       <c r="C144" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="G144" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>5701</v>
       </c>
@@ -3918,8 +5646,11 @@
       <c r="C145" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="G145" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>3985</v>
       </c>
@@ -3929,8 +5660,11 @@
       <c r="C146" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="G146" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>4017</v>
       </c>
@@ -3940,8 +5674,11 @@
       <c r="C147" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="G147" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>4459</v>
       </c>
@@ -3951,8 +5688,11 @@
       <c r="C148" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="G148" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>5039</v>
       </c>
@@ -3962,8 +5702,11 @@
       <c r="C149" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="G149" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>3872</v>
       </c>
@@ -3973,8 +5716,11 @@
       <c r="C150" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="G150" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>5655</v>
       </c>
@@ -3984,8 +5730,11 @@
       <c r="C151" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="G151" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>3276</v>
       </c>
@@ -3995,8 +5744,11 @@
       <c r="C152" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="G152" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>918</v>
       </c>
@@ -4006,8 +5758,11 @@
       <c r="C153" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="G153" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>4276</v>
       </c>
@@ -4017,8 +5772,11 @@
       <c r="C154" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="G154" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>896</v>
       </c>
@@ -4028,8 +5786,11 @@
       <c r="C155" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="G155" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>2669</v>
       </c>
@@ -4039,8 +5800,11 @@
       <c r="C156" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="G156" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>10762</v>
       </c>
@@ -4050,8 +5814,11 @@
       <c r="C157" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="G157" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>30432</v>
       </c>
@@ -4061,8 +5828,11 @@
       <c r="C158" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="G158" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>11846</v>
       </c>
@@ -4072,8 +5842,11 @@
       <c r="C159" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="G159" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>11857</v>
       </c>
@@ -4083,8 +5856,11 @@
       <c r="C160" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="G160" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>6782</v>
       </c>
@@ -4094,8 +5870,11 @@
       <c r="C161" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="G161" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>12192</v>
       </c>
@@ -4105,8 +5884,11 @@
       <c r="C162" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="G162" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>12193</v>
       </c>
@@ -4116,8 +5898,11 @@
       <c r="C163" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="G163" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>5517</v>
       </c>
@@ -4127,8 +5912,11 @@
       <c r="C164" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="G164" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>34403</v>
       </c>
@@ -4138,8 +5926,11 @@
       <c r="C165" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="G165" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>33125</v>
       </c>
@@ -4149,8 +5940,11 @@
       <c r="C166" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="G166" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>30069</v>
       </c>
@@ -4160,8 +5954,11 @@
       <c r="C167" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="G167" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>30080</v>
       </c>
@@ -4171,8 +5968,11 @@
       <c r="C168" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="G168" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>45038</v>
       </c>
@@ -4182,8 +5982,11 @@
       <c r="C169" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:3">
+      <c r="G169" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>12189</v>
       </c>
@@ -4193,8 +5996,11 @@
       <c r="C170" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="G170" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>11953</v>
       </c>
@@ -4204,8 +6010,11 @@
       <c r="C171" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="G171" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>12325</v>
       </c>
@@ -4215,8 +6024,11 @@
       <c r="C172" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:3">
+      <c r="G172" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>4820</v>
       </c>
@@ -4226,8 +6038,11 @@
       <c r="C173" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="G173" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>12209</v>
       </c>
@@ -4237,8 +6052,11 @@
       <c r="C174" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="G174" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>4848</v>
       </c>
@@ -4248,8 +6066,11 @@
       <c r="C175" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="G175" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>6727</v>
       </c>
@@ -4259,8 +6080,11 @@
       <c r="C176" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="G176" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>4812</v>
       </c>
@@ -4270,8 +6094,11 @@
       <c r="C177" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="G177" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>6733</v>
       </c>
@@ -4281,8 +6108,11 @@
       <c r="C178" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="G178" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>5531</v>
       </c>
@@ -4292,8 +6122,11 @@
       <c r="C179" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="G179" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>4836</v>
       </c>
@@ -4303,8 +6136,11 @@
       <c r="C180" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="G180" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>4845</v>
       </c>
@@ -4314,8 +6150,11 @@
       <c r="C181" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="G181" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>4808</v>
       </c>
@@ -4325,8 +6164,11 @@
       <c r="C182" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="G182" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>5539</v>
       </c>
@@ -4336,8 +6178,11 @@
       <c r="C183" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="G183" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>5534</v>
       </c>
@@ -4347,8 +6192,11 @@
       <c r="C184" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
+      <c r="G184" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>5506</v>
       </c>
@@ -4358,8 +6206,11 @@
       <c r="C185" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
+      <c r="G185" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>5550</v>
       </c>
@@ -4369,8 +6220,11 @@
       <c r="C186" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
+      <c r="G186" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>5508</v>
       </c>
@@ -4380,8 +6234,11 @@
       <c r="C187" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:3">
+      <c r="G187" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>6775</v>
       </c>
@@ -4391,8 +6248,11 @@
       <c r="C188" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="G188" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>4828</v>
       </c>
@@ -4402,8 +6262,11 @@
       <c r="C189" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:3">
+      <c r="G189" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>12148</v>
       </c>
@@ -4413,8 +6276,11 @@
       <c r="C190" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
+      <c r="G190" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>12149</v>
       </c>
@@ -4424,8 +6290,11 @@
       <c r="C191" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:3">
+      <c r="G191" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>100604</v>
       </c>
@@ -4435,8 +6304,11 @@
       <c r="C192" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
+      <c r="G192" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193">
         <v>500092</v>
       </c>
@@ -4446,8 +6318,11 @@
       <c r="C193" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:3">
+      <c r="G193" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194">
         <v>6779</v>
       </c>
@@ -4457,8 +6332,11 @@
       <c r="C194" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
+      <c r="G194" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>6743</v>
       </c>
@@ -4468,8 +6346,11 @@
       <c r="C195" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="G195" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>9729</v>
       </c>
@@ -4479,8 +6360,11 @@
       <c r="C196" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="G196" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>6729</v>
       </c>
@@ -4490,8 +6374,11 @@
       <c r="C197" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:3">
+      <c r="G197" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198">
         <v>31350</v>
       </c>
@@ -4501,8 +6388,11 @@
       <c r="C198" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
+      <c r="G198" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199">
         <v>11672</v>
       </c>
@@ -4512,8 +6402,11 @@
       <c r="C199" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:3">
+      <c r="G199" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200">
         <v>31351</v>
       </c>
@@ -4523,8 +6416,11 @@
       <c r="C200" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:3">
+      <c r="G200" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>10617</v>
       </c>
@@ -4534,8 +6430,11 @@
       <c r="C201" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:3">
+      <c r="G201" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>30072</v>
       </c>
@@ -4545,8 +6444,11 @@
       <c r="C202" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
+      <c r="G202" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>30792</v>
       </c>
@@ -4556,8 +6458,11 @@
       <c r="C203" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:3">
+      <c r="G203" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>30429</v>
       </c>
@@ -4567,8 +6472,11 @@
       <c r="C204" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
+      <c r="G204" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>31463</v>
       </c>
@@ -4578,8 +6486,11 @@
       <c r="C205" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:3">
+      <c r="G205" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>11459</v>
       </c>
@@ -4589,8 +6500,11 @@
       <c r="C206" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:3">
+      <c r="G206" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>100580</v>
       </c>
@@ -4600,8 +6514,11 @@
       <c r="C207" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:3">
+      <c r="G207" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>6625</v>
       </c>
@@ -4611,8 +6528,11 @@
       <c r="C208" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:3">
+      <c r="G208" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>30075</v>
       </c>
@@ -4622,8 +6542,11 @@
       <c r="C209" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:3">
+      <c r="G209" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>30076</v>
       </c>
@@ -4633,8 +6556,11 @@
       <c r="C210" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:3">
+      <c r="G210" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>10619</v>
       </c>
@@ -4644,8 +6570,11 @@
       <c r="C211" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:3">
+      <c r="G211" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212">
         <v>31461</v>
       </c>
@@ -4655,8 +6584,11 @@
       <c r="C212" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:3">
+      <c r="G212" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213">
         <v>6756</v>
       </c>
@@ -4666,8 +6598,11 @@
       <c r="C213" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:3">
+      <c r="G213" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214">
         <v>20135</v>
       </c>
@@ -4677,8 +6612,11 @@
       <c r="C214" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:3">
+      <c r="G214" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215">
         <v>33987</v>
       </c>
@@ -4688,8 +6626,11 @@
       <c r="C215" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="G215" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216">
         <v>30415</v>
       </c>
@@ -4699,8 +6640,11 @@
       <c r="C216" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:3">
+      <c r="G216" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217">
         <v>30414</v>
       </c>
@@ -4710,8 +6654,11 @@
       <c r="C217" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:3">
+      <c r="G217" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218">
         <v>11802</v>
       </c>
@@ -4721,8 +6668,11 @@
       <c r="C218" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:3">
+      <c r="G218" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219">
         <v>11068</v>
       </c>
@@ -4732,8 +6682,11 @@
       <c r="C219" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:3">
+      <c r="G219" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220">
         <v>34515</v>
       </c>
@@ -4743,8 +6696,11 @@
       <c r="C220" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:3">
+      <c r="G220" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221">
         <v>12328</v>
       </c>
@@ -4754,8 +6710,11 @@
       <c r="C221" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:3">
+      <c r="G221" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222">
         <v>10603</v>
       </c>
@@ -4765,8 +6724,11 @@
       <c r="C222" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:3">
+      <c r="G222" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223">
         <v>31523</v>
       </c>
@@ -4776,8 +6738,11 @@
       <c r="C223" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:3">
+      <c r="G223" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224">
         <v>30427</v>
       </c>
@@ -4787,8 +6752,11 @@
       <c r="C224" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:3">
+      <c r="G224" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225">
         <v>31366</v>
       </c>
@@ -4798,8 +6766,11 @@
       <c r="C225" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:3">
+      <c r="G225" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226">
         <v>100522</v>
       </c>
@@ -4809,8 +6780,11 @@
       <c r="C226" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:3">
+      <c r="G226" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227">
         <v>9797</v>
       </c>
@@ -4820,8 +6794,11 @@
       <c r="C227" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:3">
+      <c r="G227" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228">
         <v>40098</v>
       </c>
@@ -4831,8 +6808,11 @@
       <c r="C228" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:3">
+      <c r="G228" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229">
         <v>40097</v>
       </c>
@@ -4842,8 +6822,11 @@
       <c r="C229" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:3">
+      <c r="G229" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230">
         <v>9589</v>
       </c>
@@ -4853,8 +6836,11 @@
       <c r="C230" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:3">
+      <c r="G230" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>9590</v>
       </c>
@@ -4864,8 +6850,11 @@
       <c r="C231" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:3">
+      <c r="G231" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232">
         <v>30393</v>
       </c>
@@ -4875,8 +6864,11 @@
       <c r="C232" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:3">
+      <c r="G232" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233">
         <v>12798</v>
       </c>
@@ -4886,8 +6878,11 @@
       <c r="C233" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:3">
+      <c r="G233" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234">
         <v>11673</v>
       </c>
@@ -4897,8 +6892,11 @@
       <c r="C234" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:3">
+      <c r="G234" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235">
         <v>410267</v>
       </c>
@@ -4908,8 +6906,11 @@
       <c r="C235" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:3">
+      <c r="G235" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236">
         <v>31207</v>
       </c>
@@ -4919,8 +6920,11 @@
       <c r="C236" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:3">
+      <c r="G236" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237">
         <v>5954</v>
       </c>
@@ -4930,8 +6934,11 @@
       <c r="C237" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:3">
+      <c r="G237" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238">
         <v>100761</v>
       </c>
@@ -4941,8 +6948,11 @@
       <c r="C238" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:3">
+      <c r="G238" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239">
         <v>12329</v>
       </c>
@@ -4952,8 +6962,11 @@
       <c r="C239" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:3">
+      <c r="G239" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240">
         <v>410273</v>
       </c>
@@ -4963,8 +6976,11 @@
       <c r="C240" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:3">
+      <c r="G240" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241">
         <v>410265</v>
       </c>
@@ -4974,8 +6990,11 @@
       <c r="C241" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:3">
+      <c r="G241" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242">
         <v>410275</v>
       </c>
@@ -4985,8 +7004,11 @@
       <c r="C242" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:3">
+      <c r="G242" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243">
         <v>31449</v>
       </c>
@@ -4996,8 +7018,11 @@
       <c r="C243" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:3">
+      <c r="G243" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244">
         <v>12222</v>
       </c>
@@ -5007,8 +7032,11 @@
       <c r="C244" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:3">
+      <c r="G244" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245">
         <v>410269</v>
       </c>
@@ -5018,8 +7046,11 @@
       <c r="C245" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:3">
+      <c r="G245" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246">
         <v>410264</v>
       </c>
@@ -5029,8 +7060,11 @@
       <c r="C246" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:3">
+      <c r="G246" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247">
         <v>7434</v>
       </c>
@@ -5040,8 +7074,11 @@
       <c r="C247" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:3">
+      <c r="G247" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248">
         <v>4664</v>
       </c>
@@ -5051,8 +7088,11 @@
       <c r="C248" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:3">
+      <c r="G248" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249">
         <v>7452</v>
       </c>
@@ -5062,8 +7102,11 @@
       <c r="C249" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:3">
+      <c r="G249" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250">
         <v>7601</v>
       </c>
@@ -5073,8 +7116,11 @@
       <c r="C250" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:3">
+      <c r="G250" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251">
         <v>7466</v>
       </c>
@@ -5084,8 +7130,11 @@
       <c r="C251" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:3">
+      <c r="G251" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252">
         <v>410272</v>
       </c>
@@ -5095,8 +7144,11 @@
       <c r="C252" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:3">
+      <c r="G252" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253">
         <v>32060</v>
       </c>
@@ -5106,8 +7158,11 @@
       <c r="C253" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:3">
+      <c r="G253" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254">
         <v>410274</v>
       </c>
@@ -5117,8 +7172,11 @@
       <c r="C254" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:3">
+      <c r="G254" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255">
         <v>410287</v>
       </c>
@@ -5128,8 +7186,11 @@
       <c r="C255" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:3">
+      <c r="G255" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256">
         <v>1076</v>
       </c>
@@ -5139,8 +7200,11 @@
       <c r="C256" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:3">
+      <c r="G256" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257">
         <v>500090</v>
       </c>
@@ -5150,8 +7214,11 @@
       <c r="C257" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:3">
+      <c r="G257" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258">
         <v>410268</v>
       </c>
@@ -5161,8 +7228,11 @@
       <c r="C258" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:3">
+      <c r="G258" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259">
         <v>410270</v>
       </c>
@@ -5172,8 +7242,11 @@
       <c r="C259" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:3">
+      <c r="G259" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260">
         <v>31357</v>
       </c>
@@ -5183,8 +7256,11 @@
       <c r="C260" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:3">
+      <c r="G260" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261">
         <v>7872</v>
       </c>
@@ -5194,8 +7270,11 @@
       <c r="C261" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:3">
+      <c r="G261" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262">
         <v>410271</v>
       </c>
@@ -5205,8 +7284,11 @@
       <c r="C262" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:3">
+      <c r="G262" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263">
         <v>31490</v>
       </c>
@@ -5216,8 +7298,11 @@
       <c r="C263" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:3">
+      <c r="G263" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264">
         <v>7486</v>
       </c>
@@ -5227,8 +7312,11 @@
       <c r="C264" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:3">
+      <c r="G264" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265">
         <v>33522</v>
       </c>
@@ -5238,8 +7326,11 @@
       <c r="C265" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:3">
+      <c r="G265" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266">
         <v>30407</v>
       </c>
@@ -5249,8 +7340,11 @@
       <c r="C266" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:3">
+      <c r="G266" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267">
         <v>30408</v>
       </c>
@@ -5260,8 +7354,11 @@
       <c r="C267" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:3">
+      <c r="G267" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268">
         <v>6880</v>
       </c>
@@ -5271,8 +7368,11 @@
       <c r="C268" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:3">
+      <c r="G268" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269">
         <v>9713</v>
       </c>
@@ -5282,8 +7382,11 @@
       <c r="C269" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:3">
+      <c r="G269" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270">
         <v>200022</v>
       </c>
@@ -5293,8 +7396,11 @@
       <c r="C270" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:3">
+      <c r="G270" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271">
         <v>9716</v>
       </c>
@@ -5304,8 +7410,11 @@
       <c r="C271" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:3">
+      <c r="G271" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272">
         <v>9717</v>
       </c>
@@ -5315,8 +7424,11 @@
       <c r="C272" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:3">
+      <c r="G272" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273">
         <v>2444</v>
       </c>
@@ -5326,8 +7438,11 @@
       <c r="C273" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:3">
+      <c r="G273" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274">
         <v>34485</v>
       </c>
@@ -5337,8 +7452,11 @@
       <c r="C274" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:3">
+      <c r="G274" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
       <c r="A275">
         <v>33714</v>
       </c>
@@ -5348,8 +7466,11 @@
       <c r="C275" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:3">
+      <c r="G275" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276">
         <v>100010</v>
       </c>
@@ -5359,8 +7480,11 @@
       <c r="C276" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:3">
+      <c r="G276" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
       <c r="A277">
         <v>500089</v>
       </c>
@@ -5370,8 +7494,11 @@
       <c r="C277" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:3">
+      <c r="G277" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278">
         <v>100009</v>
       </c>
@@ -5381,8 +7508,11 @@
       <c r="C278" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:3">
+      <c r="G278" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279">
         <v>12174</v>
       </c>
@@ -5392,8 +7522,11 @@
       <c r="C279" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:3">
+      <c r="G279" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280">
         <v>10795</v>
       </c>
@@ -5403,8 +7536,11 @@
       <c r="C280" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:3">
+      <c r="G280" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281">
         <v>9734</v>
       </c>
@@ -5414,8 +7550,11 @@
       <c r="C281" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:3">
+      <c r="G281" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
       <c r="A282">
         <v>2888</v>
       </c>
@@ -5425,8 +7564,11 @@
       <c r="C282" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:3">
+      <c r="G282" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283">
         <v>10796</v>
       </c>
@@ -5436,8 +7578,11 @@
       <c r="C283" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:3">
+      <c r="G283" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284">
         <v>33681</v>
       </c>
@@ -5447,8 +7592,11 @@
       <c r="C284" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:3">
+      <c r="G284" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285">
         <v>9718</v>
       </c>
@@ -5458,8 +7606,11 @@
       <c r="C285" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:3">
+      <c r="G285" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
       <c r="A286">
         <v>33682</v>
       </c>
@@ -5469,8 +7620,11 @@
       <c r="C286" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:3">
+      <c r="G286" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
       <c r="A287">
         <v>33680</v>
       </c>
@@ -5480,8 +7634,11 @@
       <c r="C287" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:3">
+      <c r="G287" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
       <c r="A288">
         <v>30392</v>
       </c>
@@ -5491,8 +7648,11 @@
       <c r="C288" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:3">
+      <c r="G288" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289">
         <v>6742</v>
       </c>
@@ -5502,8 +7662,11 @@
       <c r="C289" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:3">
+      <c r="G289" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290">
         <v>30068</v>
       </c>
@@ -5513,8 +7676,11 @@
       <c r="C290" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:3">
+      <c r="G290" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291">
         <v>6747</v>
       </c>
@@ -5524,8 +7690,11 @@
       <c r="C291" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:3">
+      <c r="G291" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292">
         <v>6768</v>
       </c>
@@ -5535,8 +7704,11 @@
       <c r="C292" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:3">
+      <c r="G292" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293">
         <v>7129</v>
       </c>
@@ -5546,8 +7718,11 @@
       <c r="C293" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:3">
+      <c r="G293" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294">
         <v>33664</v>
       </c>
@@ -5557,8 +7732,11 @@
       <c r="C294" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:3">
+      <c r="G294" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295">
         <v>25171</v>
       </c>
@@ -5568,8 +7746,11 @@
       <c r="C295" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:3">
+      <c r="G295" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296">
         <v>33703</v>
       </c>
@@ -5579,8 +7760,11 @@
       <c r="C296" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:3">
+      <c r="G296" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
       <c r="A297">
         <v>9593</v>
       </c>
@@ -5590,8 +7774,11 @@
       <c r="C297" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:3">
+      <c r="G297" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
       <c r="A298">
         <v>6851</v>
       </c>
@@ -5601,8 +7788,11 @@
       <c r="C298" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:3">
+      <c r="G298" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299">
         <v>6751</v>
       </c>
@@ -5612,8 +7802,11 @@
       <c r="C299" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:3">
+      <c r="G299" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300">
         <v>7524</v>
       </c>
@@ -5623,8 +7816,11 @@
       <c r="C300" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:3">
+      <c r="G300" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
       <c r="A301">
         <v>100698</v>
       </c>
@@ -5634,8 +7830,11 @@
       <c r="C301" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:3">
+      <c r="G301" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
       <c r="A302">
         <v>9595</v>
       </c>
@@ -5645,8 +7844,11 @@
       <c r="C302" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:3">
+      <c r="G302" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303">
         <v>9732</v>
       </c>
@@ -5656,8 +7858,11 @@
       <c r="C303" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:3">
+      <c r="G303" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
       <c r="A304">
         <v>5220</v>
       </c>
@@ -5667,8 +7872,11 @@
       <c r="C304" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:3">
+      <c r="G304" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305">
         <v>7576</v>
       </c>
@@ -5678,8 +7886,11 @@
       <c r="C305" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:3">
+      <c r="G305" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306">
         <v>31023</v>
       </c>
@@ -5689,8 +7900,11 @@
       <c r="C306" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:3">
+      <c r="G306" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307">
         <v>6717</v>
       </c>
@@ -5700,8 +7914,11 @@
       <c r="C307" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:3">
+      <c r="G307" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308">
         <v>31455</v>
       </c>
@@ -5711,8 +7928,11 @@
       <c r="C308" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:3">
+      <c r="G308" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309">
         <v>32187</v>
       </c>
@@ -5722,8 +7942,11 @@
       <c r="C309" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:3">
+      <c r="G309" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310">
         <v>6719</v>
       </c>
@@ -5733,8 +7956,11 @@
       <c r="C310" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:3">
+      <c r="G310" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311">
         <v>2044</v>
       </c>
@@ -5744,8 +7970,11 @@
       <c r="C311" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:3">
+      <c r="G311" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312">
         <v>30442</v>
       </c>
@@ -5755,8 +7984,11 @@
       <c r="C312" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:3">
+      <c r="G312" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
       <c r="A313">
         <v>30441</v>
       </c>
@@ -5766,8 +7998,11 @@
       <c r="C313" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:3">
+      <c r="G313" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
       <c r="A314">
         <v>30443</v>
       </c>
@@ -5777,8 +8012,11 @@
       <c r="C314" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:3">
+      <c r="G314" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315">
         <v>30444</v>
       </c>
@@ -5788,8 +8026,11 @@
       <c r="C315" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:3">
+      <c r="G315" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316">
         <v>100723</v>
       </c>
@@ -5799,8 +8040,11 @@
       <c r="C316" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:3">
+      <c r="G316" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
       <c r="A317">
         <v>25198</v>
       </c>
@@ -5810,8 +8054,11 @@
       <c r="C317" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:3">
+      <c r="G317" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318">
         <v>32222</v>
       </c>
@@ -5821,8 +8068,11 @@
       <c r="C318" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:3">
+      <c r="G318" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
       <c r="A319">
         <v>5238</v>
       </c>
@@ -5832,8 +8082,11 @@
       <c r="C319" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:3">
+      <c r="G319" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
       <c r="A320">
         <v>4783</v>
       </c>
@@ -5843,8 +8096,11 @@
       <c r="C320" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:3">
+      <c r="G320" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
       <c r="A321">
         <v>100896</v>
       </c>
@@ -5854,8 +8110,11 @@
       <c r="C321" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:3">
+      <c r="G321" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
       <c r="A322">
         <v>5227</v>
       </c>
@@ -5865,8 +8124,11 @@
       <c r="C322" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:3">
+      <c r="G322" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
       <c r="A323">
         <v>200063</v>
       </c>
@@ -5876,8 +8138,11 @@
       <c r="C323" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:3">
+      <c r="G323" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
       <c r="A324">
         <v>12198</v>
       </c>
@@ -5887,8 +8152,11 @@
       <c r="C324" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:3">
+      <c r="G324" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
       <c r="A325">
         <v>12183</v>
       </c>
@@ -5898,8 +8166,11 @@
       <c r="C325" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:3">
+      <c r="G325" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
       <c r="A326">
         <v>12737</v>
       </c>
@@ -5909,8 +8180,11 @@
       <c r="C326" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:3">
+      <c r="G326" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
       <c r="A327">
         <v>4795</v>
       </c>
@@ -5920,8 +8194,11 @@
       <c r="C327" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:3">
+      <c r="G327" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
       <c r="A328">
         <v>4784</v>
       </c>
@@ -5931,8 +8208,11 @@
       <c r="C328" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:3">
+      <c r="G328" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
       <c r="A329">
         <v>3003</v>
       </c>
@@ -5942,8 +8222,11 @@
       <c r="C329" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:3">
+      <c r="G329" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
       <c r="A330">
         <v>40276</v>
       </c>
@@ -5953,8 +8236,11 @@
       <c r="C330" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:3">
+      <c r="G330" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
       <c r="A331">
         <v>6763</v>
       </c>
@@ -5964,8 +8250,11 @@
       <c r="C331" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:3">
+      <c r="G331" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
       <c r="A332">
         <v>30439</v>
       </c>
@@ -5975,8 +8264,11 @@
       <c r="C332" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:3">
+      <c r="G332" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
       <c r="A333">
         <v>30438</v>
       </c>
@@ -5986,8 +8278,11 @@
       <c r="C333" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:3">
+      <c r="G333" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
       <c r="A334">
         <v>6716</v>
       </c>
@@ -5997,8 +8292,11 @@
       <c r="C334" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:3">
+      <c r="G334" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
       <c r="A335">
         <v>2884</v>
       </c>
@@ -6008,8 +8306,11 @@
       <c r="C335" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:3">
+      <c r="G335" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
       <c r="A336">
         <v>1402</v>
       </c>
@@ -6019,8 +8320,11 @@
       <c r="C336" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:3">
+      <c r="G336" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
       <c r="A337">
         <v>34498</v>
       </c>
@@ -6030,8 +8334,11 @@
       <c r="C337" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:3">
+      <c r="G337" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
       <c r="A338">
         <v>34514</v>
       </c>
@@ -6041,8 +8348,11 @@
       <c r="C338" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:3">
+      <c r="G338" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339">
         <v>4000154</v>
       </c>
@@ -6052,8 +8362,11 @@
       <c r="C339" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:3">
+      <c r="G339" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
       <c r="A340">
         <v>12028</v>
       </c>
@@ -6063,8 +8376,11 @@
       <c r="C340" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:3">
+      <c r="G340" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
       <c r="A341">
         <v>30406</v>
       </c>
@@ -6074,8 +8390,11 @@
       <c r="C341" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:3">
+      <c r="G341" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
       <c r="A342">
         <v>31524</v>
       </c>
@@ -6085,8 +8404,11 @@
       <c r="C342" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:3">
+      <c r="G342" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
       <c r="A343">
         <v>30411</v>
       </c>
@@ -6096,8 +8418,11 @@
       <c r="C343" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:3">
+      <c r="G343" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
       <c r="A344">
         <v>6771</v>
       </c>
@@ -6107,8 +8432,11 @@
       <c r="C344" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:3">
+      <c r="G344" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
       <c r="A345">
         <v>30412</v>
       </c>
@@ -6118,8 +8446,11 @@
       <c r="C345" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:3">
+      <c r="G345" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
       <c r="A346">
         <v>25519</v>
       </c>
@@ -6129,8 +8460,11 @@
       <c r="C346" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:3">
+      <c r="G346" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347">
         <v>100575</v>
       </c>
@@ -6140,8 +8474,11 @@
       <c r="C347" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:3">
+      <c r="G347" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
       <c r="A348">
         <v>30153</v>
       </c>
@@ -6151,8 +8488,11 @@
       <c r="C348" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:3">
+      <c r="G348" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
       <c r="A349">
         <v>31025</v>
       </c>
@@ -6162,8 +8502,11 @@
       <c r="C349" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:3">
+      <c r="G349" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
       <c r="A350">
         <v>33769</v>
       </c>
@@ -6173,8 +8516,11 @@
       <c r="C350" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:3">
+      <c r="G350" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
       <c r="A351">
         <v>4394</v>
       </c>
@@ -6184,8 +8530,11 @@
       <c r="C351" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:3">
+      <c r="G351" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
       <c r="A352">
         <v>33770</v>
       </c>
@@ -6195,8 +8544,11 @@
       <c r="C352" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:3">
+      <c r="G352" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
       <c r="A353">
         <v>12126</v>
       </c>
@@ -6206,8 +8558,11 @@
       <c r="C353" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:3">
+      <c r="G353" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
       <c r="A354">
         <v>100245</v>
       </c>
@@ -6217,8 +8572,11 @@
       <c r="C354" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:3">
+      <c r="G354" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
       <c r="A355">
         <v>31525</v>
       </c>
@@ -6228,8 +8586,11 @@
       <c r="C355" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:3">
+      <c r="G355" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
       <c r="A356">
         <v>12182</v>
       </c>
@@ -6239,8 +8600,11 @@
       <c r="C356" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:3">
+      <c r="G356" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
       <c r="A357">
         <v>6739</v>
       </c>
@@ -6250,8 +8614,11 @@
       <c r="C357" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:3">
+      <c r="G357" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
       <c r="A358">
         <v>12058</v>
       </c>
@@ -6261,8 +8628,11 @@
       <c r="C358" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:3">
+      <c r="G358" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
       <c r="A359">
         <v>12059</v>
       </c>
@@ -6272,8 +8642,11 @@
       <c r="C359" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:3">
+      <c r="G359" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
       <c r="A360">
         <v>12057</v>
       </c>
@@ -6283,8 +8656,11 @@
       <c r="C360" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:3">
+      <c r="G360" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
       <c r="A361">
         <v>12060</v>
       </c>
@@ -6294,8 +8670,11 @@
       <c r="C361" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:3">
+      <c r="G361" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
       <c r="A362">
         <v>100726</v>
       </c>
@@ -6305,8 +8684,11 @@
       <c r="C362" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:3">
+      <c r="G362" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
       <c r="A363">
         <v>30436</v>
       </c>
@@ -6316,8 +8698,11 @@
       <c r="C363" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:3">
+      <c r="G363" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
       <c r="A364">
         <v>32215</v>
       </c>
@@ -6327,8 +8712,11 @@
       <c r="C364" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:3">
+      <c r="G364" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
       <c r="A365">
         <v>550004</v>
       </c>
@@ -6338,8 +8726,11 @@
       <c r="C365" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:3">
+      <c r="G365" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
       <c r="A366">
         <v>32301</v>
       </c>
@@ -6349,8 +8740,11 @@
       <c r="C366" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:3">
+      <c r="G366" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
       <c r="A367">
         <v>31022</v>
       </c>
@@ -6360,8 +8754,11 @@
       <c r="C367" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:3">
+      <c r="G367" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
       <c r="A368">
         <v>40167</v>
       </c>
@@ -6371,8 +8768,11 @@
       <c r="C368" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:3">
+      <c r="G368" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
       <c r="A369">
         <v>25127</v>
       </c>
@@ -6382,8 +8782,11 @@
       <c r="C369" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:3">
+      <c r="G369" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
       <c r="A370">
         <v>9720</v>
       </c>
@@ -6393,8 +8796,11 @@
       <c r="C370" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:3">
+      <c r="G370" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
       <c r="A371">
         <v>7620</v>
       </c>
@@ -6404,8 +8810,11 @@
       <c r="C371" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="372" spans="1:3">
+      <c r="G371" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
       <c r="A372">
         <v>6755</v>
       </c>
@@ -6415,8 +8824,11 @@
       <c r="C372" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="373" spans="1:3">
+      <c r="G372" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
       <c r="A373">
         <v>30434</v>
       </c>
@@ -6426,8 +8838,11 @@
       <c r="C373" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:3">
+      <c r="G373" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
       <c r="A374">
         <v>31454</v>
       </c>
@@ -6437,8 +8852,11 @@
       <c r="C374" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="375" spans="1:3">
+      <c r="G374" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
       <c r="A375">
         <v>32228</v>
       </c>
@@ -6448,8 +8866,11 @@
       <c r="C375" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:3">
+      <c r="G375" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
       <c r="A376">
         <v>31024</v>
       </c>
@@ -6459,8 +8880,11 @@
       <c r="C376" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="377" spans="1:3">
+      <c r="G376" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
       <c r="A377">
         <v>30410</v>
       </c>
@@ -6470,8 +8894,11 @@
       <c r="C377" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:3">
+      <c r="G377" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
       <c r="A378">
         <v>25367</v>
       </c>
@@ -6481,8 +8908,11 @@
       <c r="C378" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:3">
+      <c r="G378" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
       <c r="A379">
         <v>12845</v>
       </c>
@@ -6492,8 +8922,11 @@
       <c r="C379" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:3">
+      <c r="G379" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
       <c r="A380">
         <v>12846</v>
       </c>
@@ -6503,8 +8936,11 @@
       <c r="C380" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="381" spans="1:3">
+      <c r="G380" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
       <c r="A381">
         <v>31405</v>
       </c>
@@ -6514,8 +8950,11 @@
       <c r="C381" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="382" spans="1:3">
+      <c r="G381" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
       <c r="A382">
         <v>31548</v>
       </c>
@@ -6525,8 +8964,11 @@
       <c r="C382" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="383" spans="1:3">
+      <c r="G382" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
       <c r="A383">
         <v>30428</v>
       </c>
@@ -6536,8 +8978,11 @@
       <c r="C383" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="384" spans="1:3">
+      <c r="G383" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
       <c r="A384">
         <v>6769</v>
       </c>
@@ -6547,8 +8992,11 @@
       <c r="C384" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="1:3">
+      <c r="G384" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
       <c r="A385">
         <v>31287</v>
       </c>
@@ -6558,8 +9006,11 @@
       <c r="C385" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="386" spans="1:3">
+      <c r="G385" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
       <c r="A386">
         <v>32225</v>
       </c>
@@ -6569,8 +9020,11 @@
       <c r="C386" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="387" spans="1:3">
+      <c r="G386" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
       <c r="A387">
         <v>31018</v>
       </c>
@@ -6580,8 +9034,11 @@
       <c r="C387" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:3">
+      <c r="G387" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
       <c r="A388">
         <v>25432</v>
       </c>
@@ -6591,8 +9048,11 @@
       <c r="C388" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" spans="1:3">
+      <c r="G388" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
       <c r="A389">
         <v>200151</v>
       </c>
@@ -6602,8 +9062,11 @@
       <c r="C389" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:3">
+      <c r="G389" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
       <c r="A390">
         <v>7606</v>
       </c>
@@ -6613,8 +9076,11 @@
       <c r="C390" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:3">
+      <c r="G390" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
       <c r="A391">
         <v>7437</v>
       </c>
@@ -6624,8 +9090,11 @@
       <c r="C391" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="392" spans="1:3">
+      <c r="G391" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
       <c r="A392">
         <v>12035</v>
       </c>
@@ -6635,8 +9104,11 @@
       <c r="C392" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:3">
+      <c r="G392" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
       <c r="A393">
         <v>31549</v>
       </c>
@@ -6646,8 +9118,11 @@
       <c r="C393" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="394" spans="1:3">
+      <c r="G393" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
       <c r="A394">
         <v>100528</v>
       </c>
@@ -6657,8 +9132,11 @@
       <c r="C394" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="395" spans="1:3">
+      <c r="G394" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
       <c r="A395">
         <v>100638</v>
       </c>
@@ -6668,8 +9146,11 @@
       <c r="C395" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:3">
+      <c r="G395" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
       <c r="A396">
         <v>12118</v>
       </c>
@@ -6679,8 +9160,11 @@
       <c r="C396" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="397" spans="1:3">
+      <c r="G396" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
       <c r="A397">
         <v>33001</v>
       </c>
@@ -6690,8 +9174,11 @@
       <c r="C397" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="398" spans="1:3">
+      <c r="G397" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
       <c r="A398">
         <v>31474</v>
       </c>
@@ -6701,8 +9188,11 @@
       <c r="C398" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="399" spans="1:3">
+      <c r="G398" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
       <c r="A399">
         <v>33003</v>
       </c>
@@ -6712,8 +9202,11 @@
       <c r="C399" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="400" spans="1:3">
+      <c r="G399" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
       <c r="A400">
         <v>6524</v>
       </c>
@@ -6723,8 +9216,11 @@
       <c r="C400" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="401" spans="1:3">
+      <c r="G400" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
       <c r="A401">
         <v>33002</v>
       </c>
@@ -6734,8 +9230,11 @@
       <c r="C401" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="402" spans="1:3">
+      <c r="G401" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
       <c r="A402">
         <v>6519</v>
       </c>
@@ -6745,8 +9244,11 @@
       <c r="C402" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="403" spans="1:3">
+      <c r="G402" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
       <c r="A403">
         <v>10616</v>
       </c>
@@ -6756,8 +9258,11 @@
       <c r="C403" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="404" spans="1:3">
+      <c r="G403" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7">
       <c r="A404">
         <v>30078</v>
       </c>
@@ -6767,8 +9272,11 @@
       <c r="C404" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="405" spans="1:3">
+      <c r="G404" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
       <c r="A405">
         <v>30359</v>
       </c>
@@ -6778,8 +9286,11 @@
       <c r="C405" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="406" spans="1:3">
+      <c r="G405" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7">
       <c r="A406">
         <v>30360</v>
       </c>
@@ -6789,8 +9300,11 @@
       <c r="C406" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="407" spans="1:3">
+      <c r="G406" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
       <c r="A407">
         <v>30357</v>
       </c>
@@ -6800,8 +9314,11 @@
       <c r="C407" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="408" spans="1:3">
+      <c r="G407" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
       <c r="A408">
         <v>31496</v>
       </c>
@@ -6811,8 +9328,11 @@
       <c r="C408" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="409" spans="1:3">
+      <c r="G408" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7">
       <c r="A409">
         <v>31499</v>
       </c>
@@ -6822,8 +9342,11 @@
       <c r="C409" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="410" spans="1:3">
+      <c r="G409" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7">
       <c r="A410">
         <v>31498</v>
       </c>
@@ -6833,8 +9356,11 @@
       <c r="C410" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="411" spans="1:3">
+      <c r="G410" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
       <c r="A411">
         <v>31497</v>
       </c>
@@ -6844,8 +9370,11 @@
       <c r="C411" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="412" spans="1:3">
+      <c r="G411" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
       <c r="A412">
         <v>31494</v>
       </c>
@@ -6855,8 +9384,11 @@
       <c r="C412" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="413" spans="1:3">
+      <c r="G412" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7">
       <c r="A413">
         <v>30731</v>
       </c>
@@ -6866,8 +9398,11 @@
       <c r="C413" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="414" spans="1:3">
+      <c r="G413" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
       <c r="A414">
         <v>34401</v>
       </c>
@@ -6877,8 +9412,11 @@
       <c r="C414" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="415" spans="1:3">
+      <c r="G414" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
       <c r="A415">
         <v>34402</v>
       </c>
@@ -6888,8 +9426,11 @@
       <c r="C415" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="416" spans="1:3">
+      <c r="G415" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
       <c r="A416">
         <v>12254</v>
       </c>
@@ -6899,8 +9440,11 @@
       <c r="C416" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="417" spans="1:3">
+      <c r="G416" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7">
       <c r="A417">
         <v>100697</v>
       </c>
@@ -6910,8 +9454,11 @@
       <c r="C417" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="418" spans="1:3">
+      <c r="G417" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7">
       <c r="A418">
         <v>12218</v>
       </c>
@@ -6921,8 +9468,11 @@
       <c r="C418" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="419" spans="1:3">
+      <c r="G418" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
       <c r="A419">
         <v>200059</v>
       </c>
@@ -6932,8 +9482,11 @@
       <c r="C419" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="420" spans="1:3">
+      <c r="G419" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
       <c r="A420">
         <v>12570</v>
       </c>
@@ -6943,8 +9496,11 @@
       <c r="C420" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="421" spans="1:3">
+      <c r="G420" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
       <c r="A421">
         <v>169</v>
       </c>
@@ -6954,8 +9510,11 @@
       <c r="C421" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="422" spans="1:3">
+      <c r="G421" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
       <c r="A422">
         <v>9724</v>
       </c>
@@ -6965,8 +9524,11 @@
       <c r="C422" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="423" spans="1:3">
+      <c r="G422" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
       <c r="A423">
         <v>30062</v>
       </c>
@@ -6976,8 +9538,11 @@
       <c r="C423" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="424" spans="1:3">
+      <c r="G423" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
       <c r="A424">
         <v>30064</v>
       </c>
@@ -6987,8 +9552,11 @@
       <c r="C424" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="425" spans="1:3">
+      <c r="G424" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
       <c r="A425">
         <v>30066</v>
       </c>
@@ -6998,8 +9566,11 @@
       <c r="C425" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:3">
+      <c r="G425" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
       <c r="A426">
         <v>30071</v>
       </c>
@@ -7009,8 +9580,11 @@
       <c r="C426" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="427" spans="1:3">
+      <c r="G426" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
       <c r="A427">
         <v>100882</v>
       </c>
@@ -7020,8 +9594,11 @@
       <c r="C427" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="428" spans="1:3">
+      <c r="G427" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
       <c r="A428">
         <v>32579</v>
       </c>
@@ -7031,8 +9608,11 @@
       <c r="C428" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="429" spans="1:3">
+      <c r="G428" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
       <c r="A429">
         <v>1054</v>
       </c>
@@ -7042,8 +9622,11 @@
       <c r="C429" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="430" spans="1:3">
+      <c r="G429" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
       <c r="A430">
         <v>4000106</v>
       </c>
@@ -7053,8 +9636,11 @@
       <c r="C430" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="431" spans="1:3">
+      <c r="G430" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7">
       <c r="A431">
         <v>30785</v>
       </c>
@@ -7064,8 +9650,11 @@
       <c r="C431" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="432" spans="1:3">
+      <c r="G431" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7">
       <c r="A432">
         <v>500091</v>
       </c>
@@ -7075,8 +9664,11 @@
       <c r="C432" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="433" spans="1:3">
+      <c r="G432" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7">
       <c r="A433">
         <v>31111</v>
       </c>
@@ -7086,8 +9678,11 @@
       <c r="C433" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="434" spans="1:3">
+      <c r="G433" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
       <c r="A434">
         <v>100883</v>
       </c>
@@ -7097,8 +9692,11 @@
       <c r="C434" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="435" spans="1:3">
+      <c r="G434" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
       <c r="A435">
         <v>12315</v>
       </c>
@@ -7108,8 +9706,11 @@
       <c r="C435" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="436" spans="1:3">
+      <c r="G435" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
       <c r="A436">
         <v>25197</v>
       </c>
@@ -7118,6 +9719,9 @@
       </c>
       <c r="C436" s="1">
         <v>1</v>
+      </c>
+      <c r="G436" t="s">
+        <v>869</v>
       </c>
     </row>
   </sheetData>
